--- a/resource/config_excel_example/example_heroes.xlsx
+++ b/resource/config_excel_example/example_heroes.xlsx
@@ -231,7 +231,8 @@
     <x:col min="4" max="4" width="10" style="1"/>
     <x:col min="5" max="5" width="7" style="1"/>
     <x:col min="6" max="6" width="8" style="1"/>
-    <x:col min="7" max="16384" width="9" style="1"/>
+    <x:col min="7" max="7" width="10" style="1"/>
+    <x:col min="8" max="16384" width="9" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row s="1" customFormat="1">
@@ -256,6 +257,9 @@
       <x:c s="2" t="str">
         <x:v>英雄攻击力</x:v>
       </x:c>
+      <x:c s="2" t="str">
+        <x:v>生日</x:v>
+      </x:c>
     </x:row>
     <x:row s="3" customFormat="1">
       <x:c s="1"/>
@@ -274,6 +278,9 @@
       <x:c s="3" t="str">
         <x:v>Attack</x:v>
       </x:c>
+      <x:c s="3" t="str">
+        <x:v>BirthDay</x:v>
+      </x:c>
     </x:row>
     <x:row s="3" customFormat="1">
       <x:c s="1"/>
@@ -291,6 +298,9 @@
       </x:c>
       <x:c s="3" t="str">
         <x:v>FLOAT</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>STRING</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/config_excel_example/example_heroes.xlsx
+++ b/resource/config_excel_example/example_heroes.xlsx
@@ -232,7 +232,8 @@
     <x:col min="5" max="5" width="7" style="1"/>
     <x:col min="6" max="6" width="8" style="1"/>
     <x:col min="7" max="7" width="10" style="1"/>
-    <x:col min="8" max="16384" width="9" style="1"/>
+    <x:col min="8" max="8" width="24" style="1"/>
+    <x:col min="9" max="16384" width="9" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row s="1" customFormat="1">
@@ -260,6 +261,9 @@
       <x:c s="2" t="str">
         <x:v>生日</x:v>
       </x:c>
+      <x:c s="2" t="str">
+        <x:v>英雄品质</x:v>
+      </x:c>
     </x:row>
     <x:row s="3" customFormat="1">
       <x:c s="1"/>
@@ -281,6 +285,9 @@
       <x:c s="3" t="str">
         <x:v>BirthDay</x:v>
       </x:c>
+      <x:c s="3" t="str">
+        <x:v>Quality</x:v>
+      </x:c>
     </x:row>
     <x:row s="3" customFormat="1">
       <x:c s="1"/>
@@ -301,6 +308,9 @@
       </x:c>
       <x:c s="3" t="str">
         <x:v>STRING</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>ENUM/QualificationType</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/config_excel_example/example_heroes.xlsx
+++ b/resource/config_excel_example/example_heroes.xlsx
@@ -227,13 +227,14 @@
   <x:cols>
     <x:col min="1" max="1" width="9" style="1"/>
     <x:col min="2" max="2" width="7" style="3"/>
-    <x:col min="3" max="3" width="10" style="1"/>
-    <x:col min="4" max="4" width="10" style="1"/>
-    <x:col min="5" max="5" width="7" style="1"/>
-    <x:col min="6" max="6" width="8" style="1"/>
-    <x:col min="7" max="7" width="10" style="1"/>
-    <x:col min="8" max="8" width="24" style="1"/>
-    <x:col min="9" max="16384" width="9" style="1"/>
+    <x:col min="3" max="3" width="7" style="1"/>
+    <x:col min="4" max="4" width="8" style="1"/>
+    <x:col min="5" max="5" width="10" style="1"/>
+    <x:col min="6" max="6" width="24" style="1"/>
+    <x:col min="7" max="7" width="8" style="1"/>
+    <x:col min="8" max="8" width="8" style="1"/>
+    <x:col min="9" max="9" width="12" style="1"/>
+    <x:col min="10" max="16384" width="9" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row s="1" customFormat="1">
@@ -247,12 +248,6 @@
         <x:v>Id</x:v>
       </x:c>
       <x:c s="2" t="str">
-        <x:v>英雄名</x:v>
-      </x:c>
-      <x:c s="2" t="str">
-        <x:v>英雄描述</x:v>
-      </x:c>
-      <x:c s="2" t="str">
         <x:v>英雄血量</x:v>
       </x:c>
       <x:c s="2" t="str">
@@ -263,6 +258,15 @@
       </x:c>
       <x:c s="2" t="str">
         <x:v>英雄品质</x:v>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v>名字</x:v>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v>描述</x:v>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v>资源路径</x:v>
       </x:c>
     </x:row>
     <x:row s="3" customFormat="1">
@@ -271,12 +275,6 @@
         <x:v>Id</x:v>
       </x:c>
       <x:c s="3" t="str">
-        <x:v>HeroName</x:v>
-      </x:c>
-      <x:c s="3" t="str">
-        <x:v>HeroDesc</x:v>
-      </x:c>
-      <x:c s="3" t="str">
         <x:v>Hp</x:v>
       </x:c>
       <x:c s="3" t="str">
@@ -287,6 +285,15 @@
       </x:c>
       <x:c s="3" t="str">
         <x:v>Quality</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>Name</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>Desc</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>PrefabPath</x:v>
       </x:c>
     </x:row>
     <x:row s="3" customFormat="1">
@@ -295,22 +302,25 @@
         <x:v>INT</x:v>
       </x:c>
       <x:c s="3" t="str">
+        <x:v>FLOAT</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>FLOAT</x:v>
+      </x:c>
+      <x:c s="3" t="str">
         <x:v>STRING</x:v>
       </x:c>
       <x:c s="3" t="str">
+        <x:v>ENUM/QualificationType</x:v>
+      </x:c>
+      <x:c s="3" t="str">
         <x:v>STRING</x:v>
       </x:c>
       <x:c s="3" t="str">
-        <x:v>FLOAT</x:v>
-      </x:c>
-      <x:c s="3" t="str">
-        <x:v>FLOAT</x:v>
-      </x:c>
-      <x:c s="3" t="str">
         <x:v>STRING</x:v>
       </x:c>
       <x:c s="3" t="str">
-        <x:v>ENUM/QualificationType</x:v>
+        <x:v>STRING</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/resource/config_excel_example/example_heroes.xlsx
+++ b/resource/config_excel_example/example_heroes.xlsx
@@ -231,10 +231,18 @@
     <x:col min="4" max="4" width="8" style="1"/>
     <x:col min="5" max="5" width="10" style="1"/>
     <x:col min="6" max="6" width="24" style="1"/>
-    <x:col min="7" max="7" width="8" style="1"/>
-    <x:col min="8" max="8" width="8" style="1"/>
-    <x:col min="9" max="9" width="12" style="1"/>
-    <x:col min="10" max="16384" width="9" style="1"/>
+    <x:col min="7" max="7" width="17" style="6"/>
+    <x:col min="8" max="8" width="7" style="8"/>
+    <x:col min="9" max="9" width="7" style="1"/>
+    <x:col min="10" max="10" width="7" style="1"/>
+    <x:col min="11" max="11" width="7" style="1"/>
+    <x:col min="12" max="12" width="7" style="1"/>
+    <x:col min="13" max="13" width="7" style="9"/>
+    <x:col min="14" max="14" width="17" style="7"/>
+    <x:col min="15" max="15" width="8" style="1"/>
+    <x:col min="16" max="16" width="8" style="1"/>
+    <x:col min="17" max="17" width="12" style="1"/>
+    <x:col min="18" max="16384" width="9" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row s="1" customFormat="1">
@@ -260,6 +268,30 @@
         <x:v>英雄品质</x:v>
       </x:c>
       <x:c s="2" t="str">
+        <x:v>可选颜色</x:v>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="2" t="str">
+        <x:v/>
+      </x:c>
+      <x:c s="2" t="str">
         <x:v>名字</x:v>
       </x:c>
       <x:c s="2" t="str">
@@ -287,6 +319,30 @@
         <x:v>Quality</x:v>
       </x:c>
       <x:c s="3" t="str">
+        <x:v>AvailableColors</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>Color</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>r</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>g</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>b</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>a</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>Color</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>AvailableColors</x:v>
+      </x:c>
+      <x:c s="3" t="str">
         <x:v>Name</x:v>
       </x:c>
       <x:c s="3" t="str">
@@ -312,6 +368,30 @@
       </x:c>
       <x:c s="3" t="str">
         <x:v>ENUM/QualificationType</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>[</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>{</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>FLOAT</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>FLOAT</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>FLOAT</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>FLOAT</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>}</x:v>
+      </x:c>
+      <x:c s="3" t="str">
+        <x:v>]</x:v>
       </x:c>
       <x:c s="3" t="str">
         <x:v>STRING</x:v>
